--- a/ig/sd-correctif-cs-include-associated-data/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/sd-correctif-cs-include-associated-data/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T09:47:22+00:00</t>
+    <t>2024-01-15T10:05:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
